--- a/Spreadsheet&Access3.0/03_배열수식/03_배열수식(20문제).xlsx
+++ b/Spreadsheet&Access3.0/03_배열수식/03_배열수식(20문제).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missi\Documents\00_유튜브 강의\02_컴활1급실기\00_유튜브 라이브 강의\01_스프레드시트\03일차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mondi\Desktop\Craftsman_Information_Processing\Spreadsheet&amp;Access3.0\03_배열수식\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F7C61-4344-4540-8066-F6087EEFB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="6570" tabRatio="888"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="888" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈" sheetId="46" r:id="rId1"/>
@@ -101,13 +102,46 @@
     <definedName name="판매액">'[1]시나리오1(예제)'!$B$8</definedName>
     <definedName name="학생수">'[3]서식(결과)'!$G$5:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1746,7 +1780,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="General&quot;월&quot;"/>
@@ -2466,7 +2500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2485,7 +2519,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2515,7 +2549,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2575,11 +2609,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2732,10 +2763,10 @@
     <cellStyle name="강조색1" xfId="2" builtinId="29"/>
     <cellStyle name="강조색2" xfId="7" builtinId="33"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="6"/>
+    <cellStyle name="쉼표 [0] 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="5"/>
-    <cellStyle name="표준 3" xfId="8"/>
+    <cellStyle name="표준 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2767,7 +2798,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2809,7 +2846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2869,7 +2912,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="꺾인 연결선 3"/>
+        <xdr:cNvPr id="4" name="꺾인 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="6" idx="1"/>
@@ -2924,7 +2973,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="그룹 4"/>
+        <xdr:cNvPr id="5" name="그룹 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2937,7 +2992,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3034,7 +3095,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="직사각형 6"/>
+          <xdr:cNvPr id="7" name="직사각형 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3093,7 +3160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 7"/>
+        <xdr:cNvPr id="8" name="모서리가 둥근 직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3198,7 +3271,13 @@
     <xdr:ext cx="1607748" cy="865878"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3284,7 +3363,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3339,7 +3424,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3377,7 +3468,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvPr id="14" name="직사각형 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3437,7 +3534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="직각 삼각형 14"/>
+        <xdr:cNvPr id="15" name="직각 삼각형 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3499,7 +3602,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직각 삼각형 15"/>
+        <xdr:cNvPr id="16" name="직각 삼각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3561,7 +3670,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="그룹 16"/>
+        <xdr:cNvPr id="17" name="그룹 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3577,7 +3692,7 @@
           <xdr:cNvPr id="18" name="TextBox 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958184CB-9BA8-4C2F-B79C-556290E81BD5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3738,7 +3853,7 @@
           <xdr:cNvPr id="19" name="그룹 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFDB95A-3DDC-49A7-9CB9-393E3434E1B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3757,7 +3872,7 @@
             <xdr:cNvPr id="20" name="그룹 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB180C7-6B2B-42E4-AD32-3EB33563B8E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3776,7 +3891,7 @@
               <xdr:cNvPr id="28" name="타원 27">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E1CC8-FE2D-4FA3-8711-71ABADA732A3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -3925,7 +4040,7 @@
               <xdr:cNvPr id="29" name="타원 28">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6B1C04-AC60-473C-80C5-0549BCD8D07C}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4074,7 +4189,7 @@
               <xdr:cNvPr id="30" name="그룹 29">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E679A3E8-1068-44E7-8876-6B31C8678732}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4093,7 +4208,7 @@
                 <xdr:cNvPr id="31" name="타원 30">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B187E0AF-EC92-4EE5-96D5-7FC3D2477157}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4242,7 +4357,7 @@
                 <xdr:cNvPr id="32" name="자유형: 도형 39">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574F742F-9381-4B45-A083-37500659EB6A}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4464,7 +4579,7 @@
                 <xdr:cNvPr id="33" name="직사각형 32">
                   <a:extLst>
                     <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF501908-B9FA-4B1E-AC58-97AA9DD23A81}"/>
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
                     </a:ext>
                   </a:extLst>
                 </xdr:cNvPr>
@@ -4615,7 +4730,7 @@
             <xdr:cNvPr id="21" name="그룹 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C3FE16-4ED2-4F04-BA61-890D6272DF90}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4636,7 +4751,7 @@
               <xdr:cNvPr id="22" name="타원 21">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB0E216-80FA-440F-BB88-F890F8FA3DC3}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4785,7 +4900,7 @@
               <xdr:cNvPr id="23" name="타원 22">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADE8562-5C7C-48A4-A191-20D943F13A94}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -4934,7 +5049,7 @@
               <xdr:cNvPr id="24" name="직사각형 23">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA10174-A5F9-4D91-9733-D3B959EE9899}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5083,7 +5198,7 @@
               <xdr:cNvPr id="25" name="직사각형 24">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968452DB-7360-468B-BF0E-7A8795FF6089}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5232,7 +5347,7 @@
               <xdr:cNvPr id="26" name="직사각형 25">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C78344-76FC-4B18-BEC5-3F0FC7D0FF05}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5381,7 +5496,7 @@
               <xdr:cNvPr id="27" name="그래픽 47">
                 <a:extLst>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A5625F-D3AB-421B-9A56-E03E74FD54BF}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -5393,7 +5508,7 @@
               <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
                 <a:extLst>
                   <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                    <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" r:embed="rId5"/>
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
                   </a:ext>
                 </a:extLst>
               </a:blip>
@@ -5426,7 +5541,13 @@
     <xdr:ext cx="4392613" cy="336246"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5489,7 +5610,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="홈"/>
@@ -5780,7 +5901,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1학년입력"/>
@@ -7394,7 +7515,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="입력"/>
@@ -7854,10 +7975,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -7872,7 +7993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8230,14 +8351,14 @@
         <f t="array" ref="J10">SUM(($D$4:$D$45=D10)*($H$4:$H$45&gt;H10))+1</f>
         <v>6</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85" t="s">
+      <c r="M10" s="83"/>
+      <c r="N10" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="O10" s="85"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B11" s="4" t="s">
@@ -9444,14 +9565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.5" x14ac:dyDescent="0.6"/>
@@ -9467,353 +9588,353 @@
   <sheetData>
     <row r="1" spans="2:7" ht="28.9" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="B3" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="33">
         <v>2</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="33">
         <v>3</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="33">
         <v>4</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B7" s="34">
         <v>5</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="42">
+      <c r="B10" s="41">
         <v>1</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>2</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="50" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>3</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>4</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="50" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>5</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="50" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>6</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="50" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>7</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B17" s="53">
+      <c r="B17" s="52">
         <v>8</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="2:6" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="42">
+      <c r="B20" s="41">
         <v>9</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="45" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <v>10</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="60" t="s">
+      <c r="C21" s="68"/>
+      <c r="D21" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="50" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>11</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="50" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <v>12</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="60" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="49" t="s">
         <v>296</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="50" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <v>13</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="50" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B25" s="53">
+      <c r="B25" s="52">
         <v>14</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="61" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="62" t="s">
         <v>303</v>
       </c>
     </row>
@@ -9837,12 +9958,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -9927,11 +10046,17 @@
       <c r="J4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8" cm="1">
+        <f t="array" ref="K4">SUM(($C$4:$C$39=J4)*1)</f>
+        <v>9</v>
+      </c>
       <c r="M4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" cm="1">
+        <f t="array" ref="N4">SUM(IF(RIGHT($D$4:$D$39,2)=M4,1)*1)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B5" s="1">
@@ -9958,11 +10083,17 @@
       <c r="J5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8" cm="1">
+        <f t="array" ref="K5">SUM(($C$4:$C$39=J5)*1)</f>
+        <v>7</v>
+      </c>
       <c r="M5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" cm="1">
+        <f t="array" ref="N5">SUM(IF(RIGHT($D$4:$D$39,2)=M5,1)*1)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B6" s="1">
@@ -9989,7 +10120,10 @@
       <c r="J6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" cm="1">
+        <f t="array" ref="K6">SUM(($C$4:$C$39=J6)*1)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B7" s="1">
@@ -10016,7 +10150,10 @@
       <c r="J7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8" cm="1">
+        <f t="array" ref="K7">SUM(($C$4:$C$39=J7)*1)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B8" s="1">
@@ -10124,8 +10261,14 @@
       <c r="J11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="8" cm="1">
+        <f t="array" ref="K11">SUM((RIGHT($D$4:$D$39,2)=K$10)*($C$4:$C$39=$J11))</f>
+        <v>9</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="array" ref="L11">SUM((RIGHT($D$4:$D$39,2)=L$10)*($C$4:$C$39=$J11))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B12" s="1">
@@ -10152,8 +10295,14 @@
       <c r="J12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="K12" s="8">
+        <f t="array" ref="K12">SUM((RIGHT($D$4:$D$39,2)=K$10)*($C$4:$C$39=$J12))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="array" ref="L12">SUM((RIGHT($D$4:$D$39,2)=L$10)*($C$4:$C$39=$J12))</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B13" s="1">
@@ -10180,8 +10329,14 @@
       <c r="J13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="8">
+        <f t="array" ref="K13">SUM((RIGHT($D$4:$D$39,2)=K$10)*($C$4:$C$39=$J13))</f>
+        <v>8</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="array" ref="L13">SUM((RIGHT($D$4:$D$39,2)=L$10)*($C$4:$C$39=$J13))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B14" s="1">
@@ -10208,8 +10363,14 @@
       <c r="J14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="8">
+        <f t="array" ref="K14">SUM((RIGHT($D$4:$D$39,2)=K$10)*($C$4:$C$39=$J14))</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="array" ref="L14">SUM((RIGHT($D$4:$D$39,2)=L$10)*($C$4:$C$39=$J14))</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.6">
       <c r="B15" s="1">
@@ -10314,7 +10475,10 @@
       <c r="J18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3" cm="1">
+        <f t="array" ref="K18">SUM(IF($C$4:$C$39=J25,$E$4:$E$39))</f>
+        <v>144000</v>
+      </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B19" s="1">
@@ -10341,7 +10505,10 @@
       <c r="J19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3" cm="1">
+        <f t="array" ref="K19">SUM(IF($C$4:$C$39=J26,$E$4:$E$39))</f>
+        <v>138400</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B20" s="1">
@@ -10368,7 +10535,10 @@
       <c r="J20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3" cm="1">
+        <f t="array" ref="K20">SUM(IF($C$4:$C$39=J27,$E$4:$E$39))</f>
+        <v>213200</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B21" s="1">
@@ -10395,7 +10565,10 @@
       <c r="J21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" cm="1">
+        <f t="array" ref="K21">SUM(IF($C$4:$C$39=J28,$E$4:$E$39))</f>
+        <v>281600</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B22" s="1">
@@ -10500,7 +10673,10 @@
       <c r="J25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3" cm="1">
+        <f t="array" ref="K25">AVERAGE(IF($C$4:$C$39=J25,$E$4:$E$39))</f>
+        <v>16000</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B26" s="1">
@@ -10527,7 +10703,10 @@
       <c r="J26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <f t="array" ref="K26">AVERAGE(IF($C$4:$C$39=J26,$E$4:$E$39))</f>
+        <v>19771.428571428572</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B27" s="1">
@@ -10554,7 +10733,10 @@
       <c r="J27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="3">
+        <f t="array" ref="K27">AVERAGE(IF($C$4:$C$39=J27,$E$4:$E$39))</f>
+        <v>26650</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B28" s="1">
@@ -10581,7 +10763,10 @@
       <c r="J28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="3">
+        <f t="array" ref="K28">AVERAGE(IF($C$4:$C$39=J28,$E$4:$E$39))</f>
+        <v>23466.666666666668</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B29" s="1">
@@ -10654,10 +10839,10 @@
       <c r="H31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="84" t="s">
+      <c r="J31" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="K31" s="84"/>
+      <c r="K31" s="83"/>
       <c r="L31" s="11" t="s">
         <v>305</v>
       </c>
@@ -10684,13 +10869,16 @@
       <c r="H32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="63">
         <v>0</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="63">
         <v>20</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4" t="str">
+        <f t="array" ref="L32:L37">TEXT(FREQUENCY($B$4:$B$39,$K$32:$K$37),"[&gt;0]00명;없음")</f>
+        <v>09명</v>
+      </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B33" s="1">
@@ -10714,13 +10902,15 @@
       <c r="H33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="63">
         <v>21</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="63">
         <v>30</v>
       </c>
-      <c r="L33" s="4"/>
+      <c r="L33" s="4" t="str">
+        <v>12명</v>
+      </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B34" s="1">
@@ -10744,13 +10934,15 @@
       <c r="H34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="63">
         <v>31</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="63">
         <v>40</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4" t="str">
+        <v>없음</v>
+      </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B35" s="1">
@@ -10774,13 +10966,15 @@
       <c r="H35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="64">
+      <c r="J35" s="63">
         <v>41</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="63">
         <v>50</v>
       </c>
-      <c r="L35" s="4"/>
+      <c r="L35" s="4" t="str">
+        <v>07명</v>
+      </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B36" s="1">
@@ -10804,13 +10998,15 @@
       <c r="H36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="64">
+      <c r="J36" s="63">
         <v>51</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="63">
         <v>60</v>
       </c>
-      <c r="L36" s="4"/>
+      <c r="L36" s="4" t="str">
+        <v>05명</v>
+      </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B37" s="1">
@@ -10834,13 +11030,15 @@
       <c r="H37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="63">
         <v>61</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="63">
         <v>70</v>
       </c>
-      <c r="L37" s="4"/>
+      <c r="L37" s="4" t="str">
+        <v>03명</v>
+      </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.6">
       <c r="B38" s="1">
@@ -10899,13 +11097,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -11785,10 +11983,10 @@
       <c r="H31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="84" t="s">
+      <c r="J31" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="K31" s="84"/>
+      <c r="K31" s="83"/>
       <c r="L31" s="11" t="s">
         <v>305</v>
       </c>
@@ -11815,10 +12013,10 @@
       <c r="H32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J32" s="64">
+      <c r="J32" s="63">
         <v>0</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="63">
         <v>20</v>
       </c>
       <c r="L32" s="4" t="str">
@@ -11848,10 +12046,10 @@
       <c r="H33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="64">
+      <c r="J33" s="63">
         <v>21</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="63">
         <v>30</v>
       </c>
       <c r="L33" s="4" t="str">
@@ -11880,10 +12078,10 @@
       <c r="H34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="64">
+      <c r="J34" s="63">
         <v>31</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="63">
         <v>40</v>
       </c>
       <c r="L34" s="4" t="str">
@@ -11912,10 +12110,10 @@
       <c r="H35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J35" s="64">
+      <c r="J35" s="63">
         <v>41</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="63">
         <v>50</v>
       </c>
       <c r="L35" s="4" t="str">
@@ -11944,10 +12142,10 @@
       <c r="H36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="64">
+      <c r="J36" s="63">
         <v>51</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="63">
         <v>60</v>
       </c>
       <c r="L36" s="4" t="str">
@@ -11976,10 +12174,10 @@
       <c r="H37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J37" s="64">
+      <c r="J37" s="63">
         <v>61</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="63">
         <v>70</v>
       </c>
       <c r="L37" s="4" t="str">
@@ -12043,12 +12241,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -12130,11 +12326,26 @@
       <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="K4" s="7" t="str" cm="1">
+        <f t="array" ref="K4">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J4)*(LEFT($D$4:$D$42,2)=K$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>263,047</v>
+      </c>
+      <c r="L4" s="7" t="str">
+        <f t="array" ref="L4">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J4)*(LEFT($D$4:$D$42,2)=L$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>471,502</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f t="array" ref="M4">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J4)*(LEFT($D$4:$D$42,2)=M$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>3,000</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f t="array" ref="N4">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J4)*(LEFT($D$4:$D$42,2)=N$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f t="array" ref="O4">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J4)*(LEFT($D$4:$D$42,2)=O$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B5" s="4" t="s">
@@ -12158,11 +12369,26 @@
       <c r="J5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="K5" s="7" t="str">
+        <f t="array" ref="K5">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J5)*(LEFT($D$4:$D$42,2)=K$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>80,097</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="array" ref="L5">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J5)*(LEFT($D$4:$D$42,2)=L$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f t="array" ref="M5">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J5)*(LEFT($D$4:$D$42,2)=M$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="array" ref="N5">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J5)*(LEFT($D$4:$D$42,2)=N$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>220,000</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f t="array" ref="O5">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J5)*(LEFT($D$4:$D$42,2)=O$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B6" s="4" t="s">
@@ -12186,11 +12412,26 @@
       <c r="J6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="K6" s="7" t="str">
+        <f t="array" ref="K6">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J6)*(LEFT($D$4:$D$42,2)=K$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>205,610</v>
+      </c>
+      <c r="L6" s="7" t="str">
+        <f t="array" ref="L6">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J6)*(LEFT($D$4:$D$42,2)=L$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f t="array" ref="M6">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J6)*(LEFT($D$4:$D$42,2)=M$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>188,000</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f t="array" ref="N6">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J6)*(LEFT($D$4:$D$42,2)=N$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="array" ref="O6">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J6)*(LEFT($D$4:$D$42,2)=O$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B7" s="4" t="s">
@@ -12214,11 +12455,26 @@
       <c r="J7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="K7" s="7" t="str">
+        <f t="array" ref="K7">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J7)*(LEFT($D$4:$D$42,2)=K$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>81,970</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f t="array" ref="L7">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J7)*(LEFT($D$4:$D$42,2)=L$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="array" ref="M7">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J7)*(LEFT($D$4:$D$42,2)=M$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="array" ref="N7">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J7)*(LEFT($D$4:$D$42,2)=N$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="array" ref="O7">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J7)*(LEFT($D$4:$D$42,2)=O$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>114,262</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B8" s="4" t="s">
@@ -12242,11 +12498,26 @@
       <c r="J8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="K8" s="7" t="str">
+        <f t="array" ref="K8">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J8)*(LEFT($D$4:$D$42,2)=K$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>81,400</v>
+      </c>
+      <c r="L8" s="7" t="str">
+        <f t="array" ref="L8">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J8)*(LEFT($D$4:$D$42,2)=L$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>3,091,710</v>
+      </c>
+      <c r="M8" s="7" t="str">
+        <f t="array" ref="M8">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J8)*(LEFT($D$4:$D$42,2)=M$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>137,680</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f t="array" ref="N8">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J8)*(LEFT($D$4:$D$42,2)=N$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v>316,667</v>
+      </c>
+      <c r="O8" s="7" t="str">
+        <f t="array" ref="O8">IFERROR(TEXT(AVERAGE(IF(($B$4:$B$42=$J8)*(LEFT($D$4:$D$42,2)=O$3),$G$4:$G$42)),"#,##0"),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B9" s="4" t="s">
@@ -12339,7 +12610,10 @@
       <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" cm="1">
+        <f t="array" ref="K12">LARGE(($B$4:$B$42=J12)*($D$4:$D$42=$D$4)*$G$4:$G$42,1)</f>
+        <v>612700</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B13" s="4" t="s">
@@ -12363,7 +12637,10 @@
       <c r="J13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <f t="array" ref="K13">LARGE(($B$4:$B$42=J13)*($D$4:$D$42=$D$4)*$G$4:$G$42,1)</f>
+        <v>107190</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B14" s="4" t="s">
@@ -12387,7 +12664,10 @@
       <c r="J14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <f t="array" ref="K14">LARGE(($B$4:$B$42=J14)*($D$4:$D$42=$D$4)*$G$4:$G$42,1)</f>
+        <v>360600</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B15" s="4" t="s">
@@ -12411,7 +12691,10 @@
       <c r="J15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <f t="array" ref="K15">LARGE(($B$4:$B$42=J15)*($D$4:$D$42=$D$4)*$G$4:$G$42,1)</f>
+        <v>81970</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B16" s="4" t="s">
@@ -12435,7 +12718,10 @@
       <c r="J16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <f t="array" ref="K16">LARGE(($B$4:$B$42=J16)*($D$4:$D$42=$D$4)*$G$4:$G$42,1)</f>
+        <v>103400</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B17" s="4" t="s">
@@ -12528,7 +12814,10 @@
       <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3" cm="1">
+        <f t="array" ref="K20">AVERAGE(LARGE(($B$4:$B$42=J20)*$G$4:$G$42,{1,2,3,4}))</f>
+        <v>751382.5</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B21" s="4" t="s">
@@ -12552,7 +12841,10 @@
       <c r="J21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <f t="array" ref="K21">AVERAGE(LARGE(($B$4:$B$42=J21)*$G$4:$G$42,{1,2,3,4}))</f>
+        <v>115072.5</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B22" s="4" t="s">
@@ -12576,7 +12868,10 @@
       <c r="J22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <f t="array" ref="K22">AVERAGE(LARGE(($B$4:$B$42=J22)*$G$4:$G$42,{1,2,3,4}))</f>
+        <v>196805</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B23" s="4" t="s">
@@ -12600,7 +12895,10 @@
       <c r="J23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <f t="array" ref="K23">AVERAGE(LARGE(($B$4:$B$42=J23)*$G$4:$G$42,{1,2,3,4}))</f>
+        <v>150730</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B24" s="4" t="s">
@@ -12624,7 +12922,10 @@
       <c r="J24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <f t="array" ref="K24">AVERAGE(LARGE(($B$4:$B$42=J24)*$G$4:$G$42,{1,2,3,4}))</f>
+        <v>6854277.5</v>
+      </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B25" s="4" t="s">
@@ -12691,11 +12992,11 @@
       <c r="J27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="85" t="s">
+      <c r="K27" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B28" s="4" t="s">
@@ -12719,9 +13020,12 @@
       <c r="J28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="K28" s="64" t="str">
+        <f t="array" ref="K28">REPT("♣",COUNT(IF($D$4:$D$42=J28,1)))</f>
+        <v>♣♣♣♣♣♣♣♣♣♣♣</v>
+      </c>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B29" s="4" t="s">
@@ -12745,9 +13049,12 @@
       <c r="J29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
+      <c r="K29" s="64" t="str">
+        <f t="array" ref="K29">REPT("♣",COUNT(IF($D$4:$D$42=J29,1)))</f>
+        <v>♣♣♣♣♣♣♣♣♣♣♣♣♣♣</v>
+      </c>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B30" s="4" t="s">
@@ -12771,9 +13078,12 @@
       <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="67"/>
+      <c r="K30" s="64" t="str">
+        <f t="array" ref="K30">REPT("♣",COUNT(IF($D$4:$D$42=J30,1)))</f>
+        <v>♣♣♣♣♣</v>
+      </c>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B31" s="4" t="s">
@@ -12797,9 +13107,12 @@
       <c r="J31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="67"/>
+      <c r="K31" s="64" t="str">
+        <f t="array" ref="K31">REPT("♣",COUNT(IF($D$4:$D$42=J31,1)))</f>
+        <v>♣♣♣♣</v>
+      </c>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B32" s="4" t="s">
@@ -12823,9 +13136,12 @@
       <c r="J32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="67"/>
+      <c r="K32" s="64" t="str">
+        <f t="array" ref="K32">REPT("♣",COUNT(IF($D$4:$D$42=J32,1)))</f>
+        <v>♣♣♣♣♣</v>
+      </c>
+      <c r="L32" s="65"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B33" s="4" t="s">
@@ -12930,11 +13246,26 @@
       <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="K36" s="7" t="str" cm="1">
+        <f t="array" ref="K36">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J36)*(LEFT($D$4:$D$42,2)=K$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>6위</v>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f t="array" ref="L36">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J36)*(LEFT($D$4:$D$42,2)=L$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>5위</v>
+      </c>
+      <c r="M36" s="7" t="str">
+        <f t="array" ref="M36">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J36)*(LEFT($D$4:$D$42,2)=M$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>39위</v>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f t="array" ref="N36">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J36)*(LEFT($D$4:$D$42,2)=N$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="O36" s="7" t="str">
+        <f t="array" ref="O36">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J36)*(LEFT($D$4:$D$42,2)=O$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B37" s="4" t="s">
@@ -12958,11 +13289,26 @@
       <c r="J37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="K37" s="7" t="str">
+        <f t="array" ref="K37">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J37)*(LEFT($D$4:$D$42,2)=K$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>22위</v>
+      </c>
+      <c r="L37" s="7" t="str">
+        <f t="array" ref="L37">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J37)*(LEFT($D$4:$D$42,2)=L$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="M37" s="7" t="str">
+        <f t="array" ref="M37">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J37)*(LEFT($D$4:$D$42,2)=M$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="N37" s="7" t="str">
+        <f t="array" ref="N37">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J37)*(LEFT($D$4:$D$42,2)=N$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>13위</v>
+      </c>
+      <c r="O37" s="7" t="str">
+        <f t="array" ref="O37">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J37)*(LEFT($D$4:$D$42,2)=O$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B38" s="4" t="s">
@@ -12986,11 +13332,26 @@
       <c r="J38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="K38" s="7" t="str">
+        <f t="array" ref="K38">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J38)*(LEFT($D$4:$D$42,2)=K$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>9위</v>
+      </c>
+      <c r="L38" s="7" t="str">
+        <f t="array" ref="L38">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J38)*(LEFT($D$4:$D$42,2)=L$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="M38" s="7" t="str">
+        <f t="array" ref="M38">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J38)*(LEFT($D$4:$D$42,2)=M$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>12위</v>
+      </c>
+      <c r="N38" s="7" t="str">
+        <f t="array" ref="N38">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J38)*(LEFT($D$4:$D$42,2)=N$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="O38" s="7" t="str">
+        <f t="array" ref="O38">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J38)*(LEFT($D$4:$D$42,2)=O$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B39" s="4" t="s">
@@ -13014,11 +13375,26 @@
       <c r="J39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="K39" s="7" t="str">
+        <f t="array" ref="K39">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J39)*(LEFT($D$4:$D$42,2)=K$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>25위</v>
+      </c>
+      <c r="L39" s="7" t="str">
+        <f t="array" ref="L39">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J39)*(LEFT($D$4:$D$42,2)=L$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="M39" s="7" t="str">
+        <f t="array" ref="M39">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J39)*(LEFT($D$4:$D$42,2)=M$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="N39" s="7" t="str">
+        <f t="array" ref="N39">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J39)*(LEFT($D$4:$D$42,2)=N$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
+      <c r="O39" s="7" t="str">
+        <f t="array" ref="O39">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J39)*(LEFT($D$4:$D$42,2)=O$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>11위</v>
+      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B40" s="4" t="s">
@@ -13042,11 +13418,26 @@
       <c r="J40" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="K40" s="7" t="str">
+        <f t="array" ref="K40">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J40)*(LEFT($D$4:$D$42,2)=K$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>23위</v>
+      </c>
+      <c r="L40" s="7" t="str">
+        <f t="array" ref="L40">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J40)*(LEFT($D$4:$D$42,2)=L$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>1위</v>
+      </c>
+      <c r="M40" s="7" t="str">
+        <f t="array" ref="M40">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J40)*(LEFT($D$4:$D$42,2)=M$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>15위</v>
+      </c>
+      <c r="N40" s="7" t="str">
+        <f t="array" ref="N40">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J40)*(LEFT($D$4:$D$42,2)=N$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>7위</v>
+      </c>
+      <c r="O40" s="7" t="str">
+        <f t="array" ref="O40">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J40)*(LEFT($D$4:$D$42,2)=O$35),$G$4:$G$42)),$G$4:$G$42,0) &amp; "위","없음")</f>
+        <v>없음</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B41" s="4" t="s">
@@ -13098,15 +13489,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
@@ -13854,11 +14243,11 @@
       <c r="J27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="85" t="s">
+      <c r="K27" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B28" s="4" t="s">
@@ -13882,12 +14271,12 @@
       <c r="J28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="65" t="str">
+      <c r="K28" s="64" t="str">
         <f t="array" ref="K28">REPT("♣",COUNT(IF($D$4:$D$42=J28,1)))</f>
         <v>♣♣♣♣♣♣♣♣♣♣♣</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B29" s="4" t="s">
@@ -13911,12 +14300,12 @@
       <c r="J29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="65" t="str">
+      <c r="K29" s="64" t="str">
         <f t="array" ref="K29">REPT("♣",COUNT(IF($D$4:$D$42=J29,1)))</f>
         <v>♣♣♣♣♣♣♣♣♣♣♣♣♣♣</v>
       </c>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B30" s="4" t="s">
@@ -13940,12 +14329,12 @@
       <c r="J30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="65" t="str">
+      <c r="K30" s="64" t="str">
         <f t="array" ref="K30">REPT("♣",COUNT(IF($D$4:$D$42=J30,1)))</f>
         <v>♣♣♣♣♣</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="67"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B31" s="4" t="s">
@@ -13969,12 +14358,12 @@
       <c r="J31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="65" t="str">
+      <c r="K31" s="64" t="str">
         <f t="array" ref="K31">REPT("♣",COUNT(IF($D$4:$D$42=J31,1)))</f>
         <v>♣♣♣♣</v>
       </c>
-      <c r="L31" s="66"/>
-      <c r="M31" s="67"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B32" s="4" t="s">
@@ -13998,12 +14387,12 @@
       <c r="J32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="65" t="str">
+      <c r="K32" s="64" t="str">
         <f t="array" ref="K32">REPT("♣",COUNT(IF($D$4:$D$42=J32,1)))</f>
         <v>♣♣♣♣♣</v>
       </c>
-      <c r="L32" s="66"/>
-      <c r="M32" s="67"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B33" s="4" t="s">
@@ -14108,7 +14497,7 @@
       <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="7" t="str">
+      <c r="K36" s="7" t="str" cm="1">
         <f t="array" ref="K36">IFERROR(_xlfn.RANK.EQ(MAX(IF(($B$4:$B$42=$J36)*(LEFT($D$4:$D$42,2)=K$35),$G$4:$G$42)),$G$4:$G$42,0)&amp;"위","없음")</f>
         <v>6위</v>
       </c>
@@ -14351,11 +14740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -14397,10 +14786,10 @@
       <c r="G3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="11" t="s">
         <v>143</v>
       </c>
@@ -14430,7 +14819,10 @@
       <c r="J4" s="22">
         <v>5</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="str">
+        <f t="array" ref="K4:K10">TEXT(FREQUENCY($F$4:$F$40,$J$4:$J$10),"00강좌")</f>
+        <v>10강좌</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B5" s="14" t="s">
@@ -14457,7 +14849,9 @@
       <c r="J5" s="22">
         <v>10</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="str">
+        <v>07강좌</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B6" s="14" t="s">
@@ -14484,7 +14878,9 @@
       <c r="J6" s="22">
         <v>15</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="str">
+        <v>08강좌</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B7" s="14" t="s">
@@ -14511,7 +14907,9 @@
       <c r="J7" s="22">
         <v>20</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="str">
+        <v>07강좌</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B8" s="14" t="s">
@@ -14538,7 +14936,9 @@
       <c r="J8" s="22">
         <v>25</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="str">
+        <v>02강좌</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B9" s="14" t="s">
@@ -14565,7 +14965,9 @@
       <c r="J9" s="22">
         <v>30</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="str">
+        <v>01강좌</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B10" s="14" t="s">
@@ -14592,7 +14994,9 @@
       <c r="J10" s="22">
         <v>35</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="str">
+        <v>01강좌</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B11" s="14" t="s">
@@ -14953,7 +15357,10 @@
       <c r="I24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8">
+        <f t="array" ref="J24">MAX(($D$4:$D$40=I24)*$F$4:$F$40)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B25" s="14" t="s">
@@ -14977,7 +15384,10 @@
       <c r="I25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8">
+        <f t="array" ref="J25">MAX(($D$4:$D$40=I25)*$F$4:$F$40)</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B26" s="14" t="s">
@@ -15001,7 +15411,10 @@
       <c r="I26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8">
+        <f t="array" ref="J26">MAX(($D$4:$D$40=I26)*$F$4:$F$40)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B27" s="14" t="s">
@@ -15025,7 +15438,10 @@
       <c r="I27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8">
+        <f t="array" ref="J27">MAX(($D$4:$D$40=I27)*$F$4:$F$40)</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B28" s="14" t="s">
@@ -15292,10 +15708,22 @@
       <c r="I38" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="J38" s="24">
+        <f t="array" ref="J38">COUNT(IF((FIND($I38,$B$4:$B$40))*(FIND(J$37,$D$4:$D$40)),1))</f>
+        <v>6</v>
+      </c>
+      <c r="K38" s="24">
+        <f t="array" ref="K38">COUNT(IF((FIND($I38,$B$4:$B$40))*(FIND(K$37,$D$4:$D$40)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="24">
+        <f t="array" ref="L38">COUNT(IF((FIND($I38,$B$4:$B$40))*(FIND(L$37,$D$4:$D$40)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="24">
+        <f t="array" ref="M38">COUNT(IF((FIND($I38,$B$4:$B$40))*(FIND(M$37,$D$4:$D$40)),1))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B39" s="14" t="s">
@@ -15319,10 +15747,22 @@
       <c r="I39" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="J39" s="24">
+        <f t="array" ref="J39">COUNT(IF((FIND($I39,$B$4:$B$40))*(FIND(J$37,$D$4:$D$40)),1))</f>
+        <v>3</v>
+      </c>
+      <c r="K39" s="24">
+        <f t="array" ref="K39">COUNT(IF((FIND($I39,$B$4:$B$40))*(FIND(K$37,$D$4:$D$40)),1))</f>
+        <v>4</v>
+      </c>
+      <c r="L39" s="24">
+        <f t="array" ref="L39">COUNT(IF((FIND($I39,$B$4:$B$40))*(FIND(L$37,$D$4:$D$40)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="24">
+        <f t="array" ref="M39">COUNT(IF((FIND($I39,$B$4:$B$40))*(FIND(M$37,$D$4:$D$40)),1))</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B40" s="14" t="s">
@@ -15346,22 +15786,46 @@
       <c r="I40" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="J40" s="24">
+        <f t="array" ref="J40">COUNT(IF((FIND($I40,$B$4:$B$40))*(FIND(J$37,$D$4:$D$40)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="24">
+        <f t="array" ref="K40">COUNT(IF((FIND($I40,$B$4:$B$40))*(FIND(K$37,$D$4:$D$40)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="24">
+        <f t="array" ref="L40">COUNT(IF((FIND($I40,$B$4:$B$40))*(FIND(L$37,$D$4:$D$40)),1))</f>
+        <v>5</v>
+      </c>
+      <c r="M40" s="24">
+        <f t="array" ref="M40">COUNT(IF((FIND($I40,$B$4:$B$40))*(FIND(M$37,$D$4:$D$40)),1))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.6">
       <c r="I41" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="J41" s="24">
+        <f t="array" ref="J41">COUNT(IF((FIND($I41,$B$4:$B$40))*(FIND(J$37,$D$4:$D$40)),1))</f>
+        <v>4</v>
+      </c>
+      <c r="K41" s="24">
+        <f t="array" ref="K41">COUNT(IF((FIND($I41,$B$4:$B$40))*(FIND(K$37,$D$4:$D$40)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="24">
+        <f t="array" ref="L41">COUNT(IF((FIND($I41,$B$4:$B$40))*(FIND(L$37,$D$4:$D$40)),1))</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="24">
+        <f t="array" ref="M41">COUNT(IF((FIND($I41,$B$4:$B$40))*(FIND(M$37,$D$4:$D$40)),1))</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="I14:I20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I14:I20">
     <sortCondition ref="I14:I20"/>
   </sortState>
   <mergeCells count="1">
@@ -15374,14 +15838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -15423,10 +15887,10 @@
       <c r="G3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="11" t="s">
         <v>143</v>
       </c>
@@ -16544,7 +17008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16821,14 +17285,14 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="85" t="s">
+      <c r="M10" s="83"/>
+      <c r="N10" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="O10" s="85"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.6">
       <c r="B11" s="4" t="s">

--- a/Spreadsheet&Access3.0/03_배열수식/03_배열수식(20문제).xlsx
+++ b/Spreadsheet&Access3.0/03_배열수식/03_배열수식(20문제).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mondi\Desktop\Craftsman_Information_Processing\Spreadsheet&amp;Access3.0\03_배열수식\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F7C61-4344-4540-8066-F6087EEFB44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85126825-00DC-4D1F-B89A-58BA05D007A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="888" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="888" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="홈" sheetId="46" r:id="rId1"/>
@@ -7999,8 +7999,8 @@
   </sheetPr>
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -14743,8 +14743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -15099,10 +15099,22 @@
       <c r="I14" s="20">
         <v>8</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="J14" s="18">
+        <f t="array" ref="J14:J20">FREQUENCY(IF($D$4:$D$40=J$13,$G$4:$G$40),$I$14:$I$20)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="array" ref="K14:K20">FREQUENCY(IF($D$4:$D$40=K$13,$G$4:$G$40),$I$14:$I$20)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="array" ref="L14:L20">FREQUENCY(IF($D$4:$D$40=L$13,$G$4:$G$40),$I$14:$I$20)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="array" ref="M14:M20">FREQUENCY(IF($D$4:$D$40=M$13,$G$4:$G$40),$I$14:$I$20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B15" s="14" t="s">
@@ -15126,10 +15138,18 @@
       <c r="I15" s="20">
         <v>10</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="J15" s="18">
+        <v>5</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B16" s="14" t="s">
@@ -15153,10 +15173,18 @@
       <c r="I16" s="20">
         <v>11</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="J16" s="18">
+        <v>2</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1</v>
+      </c>
+      <c r="M16" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B17" s="14" t="s">
@@ -15180,10 +15208,18 @@
       <c r="I17" s="20">
         <v>12</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="18">
+        <v>2</v>
+      </c>
+      <c r="L17" s="18">
+        <v>2</v>
+      </c>
+      <c r="M17" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B18" s="14" t="s">
@@ -15207,10 +15243,18 @@
       <c r="I18" s="20">
         <v>13</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B19" s="14" t="s">
@@ -15234,10 +15278,18 @@
       <c r="I19" s="20">
         <v>14</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="J19" s="18">
+        <v>2</v>
+      </c>
+      <c r="K19" s="18">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B20" s="14" t="s">
@@ -15261,10 +15313,18 @@
       <c r="I20" s="20">
         <v>15</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="J20" s="18">
+        <v>2</v>
+      </c>
+      <c r="K20" s="18">
+        <v>3</v>
+      </c>
+      <c r="L20" s="18">
+        <v>2</v>
+      </c>
+      <c r="M20" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B21" s="14" t="s">
@@ -15844,8 +15904,8 @@
   </sheetPr>
   <dimension ref="B2:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -17011,8 +17071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -17100,7 +17160,10 @@
         <f>AVERAGE(F4:G4)</f>
         <v>854</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="8">
+        <f t="array" ref="I4">_xlfn.RANK.EQ(H4,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H4)*($F$4:$F$45&gt;F4))</f>
+        <v>21</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="L4" s="13" t="s">
         <v>164</v>
@@ -17132,7 +17195,10 @@
         <f t="shared" ref="H5:H45" si="0">AVERAGE(F5:G5)</f>
         <v>854</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="8">
+        <f t="array" ref="I5">_xlfn.RANK.EQ(H5,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H5)*($F$4:$F$45&gt;F5))</f>
+        <v>22</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="L5" s="13" t="s">
         <v>171</v>
@@ -17164,7 +17230,10 @@
         <f t="shared" si="0"/>
         <v>912.5</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <f t="array" ref="I6">_xlfn.RANK.EQ(H6,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H6)*($F$4:$F$45&gt;F6))</f>
+        <v>9</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="L6" s="13" t="s">
         <v>174</v>
@@ -17196,7 +17265,10 @@
         <f t="shared" si="0"/>
         <v>556</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8">
+        <f t="array" ref="I7">_xlfn.RANK.EQ(H7,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H7)*($F$4:$F$45&gt;F7))</f>
+        <v>42</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="L7" s="13" t="s">
         <v>203</v>
@@ -17228,7 +17300,10 @@
         <f t="shared" si="0"/>
         <v>903.5</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8">
+        <f t="array" ref="I8">_xlfn.RANK.EQ(H8,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H8)*($F$4:$F$45&gt;F8))</f>
+        <v>10</v>
+      </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.6">
@@ -17254,7 +17329,10 @@
         <f t="shared" si="0"/>
         <v>761.5</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8">
+        <f t="array" ref="I9">_xlfn.RANK.EQ(H9,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H9)*($F$4:$F$45&gt;F9))</f>
+        <v>31</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="L9" t="s">
         <v>258</v>
@@ -17283,7 +17361,10 @@
         <f t="shared" si="0"/>
         <v>902</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="8">
+        <f t="array" ref="I10">_xlfn.RANK.EQ(H10,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H10)*($F$4:$F$45&gt;F10))</f>
+        <v>11</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="L10" s="83" t="s">
         <v>252</v>
@@ -17317,7 +17398,10 @@
         <f t="shared" si="0"/>
         <v>725</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8">
+        <f t="array" ref="I11">_xlfn.RANK.EQ(H11,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H11)*($F$4:$F$45&gt;F11))</f>
+        <v>36</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="L11" s="27">
         <v>0</v>
@@ -17325,7 +17409,10 @@
       <c r="M11" s="27">
         <v>700</v>
       </c>
-      <c r="N11" s="28"/>
+      <c r="N11" s="28" t="str">
+        <f t="array" ref="N11:N17">REPT("★",FREQUENCY($H$4:$H$45,$M$11:$M$17))</f>
+        <v>★★★★★★</v>
+      </c>
       <c r="O11" s="29"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.6">
@@ -17351,7 +17438,10 @@
         <f t="shared" si="0"/>
         <v>946.5</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="8">
+        <f t="array" ref="I12">_xlfn.RANK.EQ(H12,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H12)*($F$4:$F$45&gt;F12))</f>
+        <v>3</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="L12" s="27">
         <v>701</v>
@@ -17359,7 +17449,9 @@
       <c r="M12" s="27">
         <v>750</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="28" t="str">
+        <v>★★★★</v>
+      </c>
       <c r="O12" s="29"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.6">
@@ -17385,7 +17477,10 @@
         <f t="shared" si="0"/>
         <v>893.5</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="8">
+        <f t="array" ref="I13">_xlfn.RANK.EQ(H13,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H13)*($F$4:$F$45&gt;F13))</f>
+        <v>12</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="L13" s="27">
         <v>751</v>
@@ -17393,7 +17488,9 @@
       <c r="M13" s="27">
         <v>800</v>
       </c>
-      <c r="N13" s="28"/>
+      <c r="N13" s="28" t="str">
+        <v>★★★</v>
+      </c>
       <c r="O13" s="29"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.6">
@@ -17419,7 +17516,10 @@
         <f t="shared" si="0"/>
         <v>863</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="8">
+        <f t="array" ref="I14">_xlfn.RANK.EQ(H14,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H14)*($F$4:$F$45&gt;F14))</f>
+        <v>20</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="L14" s="27">
         <v>801</v>
@@ -17427,7 +17527,9 @@
       <c r="M14" s="27">
         <v>850</v>
       </c>
-      <c r="N14" s="28"/>
+      <c r="N14" s="28" t="str">
+        <v>★★★★★★★</v>
+      </c>
       <c r="O14" s="29"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.6">
@@ -17453,7 +17555,10 @@
         <f t="shared" si="0"/>
         <v>815.5</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="8">
+        <f t="array" ref="I15">_xlfn.RANK.EQ(H15,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H15)*($F$4:$F$45&gt;F15))</f>
+        <v>27</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="L15" s="27">
         <v>851</v>
@@ -17461,7 +17566,9 @@
       <c r="M15" s="27">
         <v>900</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="28" t="str">
+        <v>★★★★★★★★★★★</v>
+      </c>
       <c r="O15" s="29"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.6">
@@ -17487,7 +17594,10 @@
         <f t="shared" si="0"/>
         <v>617</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="8">
+        <f t="array" ref="I16">_xlfn.RANK.EQ(H16,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H16)*($F$4:$F$45&gt;F16))</f>
+        <v>40</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="L16" s="27">
         <v>901</v>
@@ -17495,7 +17605,9 @@
       <c r="M16" s="27">
         <v>950</v>
       </c>
-      <c r="N16" s="28"/>
+      <c r="N16" s="28" t="str">
+        <v>★★★★★★★★★</v>
+      </c>
       <c r="O16" s="29"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.6">
@@ -17521,7 +17633,10 @@
         <f t="shared" si="0"/>
         <v>881.5</v>
       </c>
-      <c r="I17" s="8"/>
+      <c r="I17" s="8">
+        <f t="array" ref="I17">_xlfn.RANK.EQ(H17,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H17)*($F$4:$F$45&gt;F17))</f>
+        <v>16</v>
+      </c>
       <c r="J17" s="8"/>
       <c r="L17" s="27">
         <v>951</v>
@@ -17529,7 +17644,9 @@
       <c r="M17" s="27">
         <v>1000</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="28" t="str">
+        <v>★★</v>
+      </c>
       <c r="O17" s="29"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.6">
@@ -17555,7 +17672,10 @@
         <f t="shared" si="0"/>
         <v>691</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="8">
+        <f t="array" ref="I18">_xlfn.RANK.EQ(H18,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H18)*($F$4:$F$45&gt;F18))</f>
+        <v>37</v>
+      </c>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.6">
@@ -17581,7 +17701,10 @@
         <f t="shared" si="0"/>
         <v>847.5</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="8">
+        <f t="array" ref="I19">_xlfn.RANK.EQ(H19,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H19)*($F$4:$F$45&gt;F19))</f>
+        <v>23</v>
+      </c>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.6">
@@ -17607,7 +17730,10 @@
         <f t="shared" si="0"/>
         <v>726.5</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8">
+        <f t="array" ref="I20">_xlfn.RANK.EQ(H20,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H20)*($F$4:$F$45&gt;F20))</f>
+        <v>35</v>
+      </c>
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.6">
@@ -17633,7 +17759,10 @@
         <f t="shared" si="0"/>
         <v>751.5</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="8">
+        <f t="array" ref="I21">_xlfn.RANK.EQ(H21,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H21)*($F$4:$F$45&gt;F21))</f>
+        <v>32</v>
+      </c>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.6">
@@ -17659,7 +17788,10 @@
         <f t="shared" si="0"/>
         <v>831</v>
       </c>
-      <c r="I22" s="8"/>
+      <c r="I22" s="8">
+        <f t="array" ref="I22">_xlfn.RANK.EQ(H22,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H22)*($F$4:$F$45&gt;F22))</f>
+        <v>25</v>
+      </c>
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.6">
@@ -17685,7 +17817,10 @@
         <f t="shared" si="0"/>
         <v>887</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8">
+        <f t="array" ref="I23">_xlfn.RANK.EQ(H23,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H23)*($F$4:$F$45&gt;F23))</f>
+        <v>14</v>
+      </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.6">
@@ -17711,7 +17846,10 @@
         <f t="shared" si="0"/>
         <v>847.5</v>
       </c>
-      <c r="I24" s="8"/>
+      <c r="I24" s="8">
+        <f t="array" ref="I24">_xlfn.RANK.EQ(H24,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H24)*($F$4:$F$45&gt;F24))</f>
+        <v>24</v>
+      </c>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.6">
@@ -17737,7 +17875,10 @@
         <f t="shared" si="0"/>
         <v>745</v>
       </c>
-      <c r="I25" s="8"/>
+      <c r="I25" s="8">
+        <f t="array" ref="I25">_xlfn.RANK.EQ(H25,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H25)*($F$4:$F$45&gt;F25))</f>
+        <v>33</v>
+      </c>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.6">
@@ -17763,7 +17904,10 @@
         <f t="shared" si="0"/>
         <v>868</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="8">
+        <f t="array" ref="I26">_xlfn.RANK.EQ(H26,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H26)*($F$4:$F$45&gt;F26))</f>
+        <v>18</v>
+      </c>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.6">
@@ -17789,7 +17933,10 @@
         <f t="shared" si="0"/>
         <v>962.5</v>
       </c>
-      <c r="I27" s="8"/>
+      <c r="I27" s="8">
+        <f t="array" ref="I27">_xlfn.RANK.EQ(H27,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H27)*($F$4:$F$45&gt;F27))</f>
+        <v>1</v>
+      </c>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.6">
@@ -17815,7 +17962,10 @@
         <f t="shared" si="0"/>
         <v>812.5</v>
       </c>
-      <c r="I28" s="8"/>
+      <c r="I28" s="8">
+        <f t="array" ref="I28">_xlfn.RANK.EQ(H28,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H28)*($F$4:$F$45&gt;F28))</f>
+        <v>29</v>
+      </c>
       <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.6">
@@ -17841,7 +17991,10 @@
         <f t="shared" si="0"/>
         <v>957</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="8">
+        <f t="array" ref="I29">_xlfn.RANK.EQ(H29,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H29)*($F$4:$F$45&gt;F29))</f>
+        <v>2</v>
+      </c>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.6">
@@ -17867,7 +18020,10 @@
         <f t="shared" si="0"/>
         <v>826.5</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="8">
+        <f t="array" ref="I30">_xlfn.RANK.EQ(H30,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H30)*($F$4:$F$45&gt;F30))</f>
+        <v>26</v>
+      </c>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.6">
@@ -17893,7 +18049,10 @@
         <f t="shared" si="0"/>
         <v>871</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="8">
+        <f t="array" ref="I31">_xlfn.RANK.EQ(H31,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H31)*($F$4:$F$45&gt;F31))</f>
+        <v>17</v>
+      </c>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.6">
@@ -17919,7 +18078,10 @@
         <f t="shared" si="0"/>
         <v>914.5</v>
       </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="8">
+        <f t="array" ref="I32">_xlfn.RANK.EQ(H32,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H32)*($F$4:$F$45&gt;F32))</f>
+        <v>8</v>
+      </c>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.6">
@@ -17945,7 +18107,10 @@
         <f t="shared" si="0"/>
         <v>882.5</v>
       </c>
-      <c r="I33" s="8"/>
+      <c r="I33" s="8">
+        <f t="array" ref="I33">_xlfn.RANK.EQ(H33,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H33)*($F$4:$F$45&gt;F33))</f>
+        <v>15</v>
+      </c>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.6">
@@ -17971,7 +18136,10 @@
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="I34" s="8"/>
+      <c r="I34" s="8">
+        <f t="array" ref="I34">_xlfn.RANK.EQ(H34,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H34)*($F$4:$F$45&gt;F34))</f>
+        <v>38</v>
+      </c>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.6">
@@ -17997,7 +18165,10 @@
         <f t="shared" si="0"/>
         <v>741.5</v>
       </c>
-      <c r="I35" s="8"/>
+      <c r="I35" s="8">
+        <f t="array" ref="I35">_xlfn.RANK.EQ(H35,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H35)*($F$4:$F$45&gt;F35))</f>
+        <v>34</v>
+      </c>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.6">
@@ -18023,7 +18194,10 @@
         <f t="shared" si="0"/>
         <v>584</v>
       </c>
-      <c r="I36" s="8"/>
+      <c r="I36" s="8">
+        <f t="array" ref="I36">_xlfn.RANK.EQ(H36,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H36)*($F$4:$F$45&gt;F36))</f>
+        <v>41</v>
+      </c>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.6">
@@ -18049,7 +18223,10 @@
         <f t="shared" si="0"/>
         <v>785.5</v>
       </c>
-      <c r="I37" s="8"/>
+      <c r="I37" s="8">
+        <f t="array" ref="I37">_xlfn.RANK.EQ(H37,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H37)*($F$4:$F$45&gt;F37))</f>
+        <v>30</v>
+      </c>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.6">
@@ -18075,7 +18252,10 @@
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8">
+        <f t="array" ref="I38">_xlfn.RANK.EQ(H38,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H38)*($F$4:$F$45&gt;F38))</f>
+        <v>6</v>
+      </c>
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.6">
@@ -18101,7 +18281,10 @@
         <f t="shared" si="0"/>
         <v>642</v>
       </c>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8">
+        <f t="array" ref="I39">_xlfn.RANK.EQ(H39,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H39)*($F$4:$F$45&gt;F39))</f>
+        <v>39</v>
+      </c>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.6">
@@ -18127,7 +18310,10 @@
         <f t="shared" si="0"/>
         <v>922.5</v>
       </c>
-      <c r="I40" s="8"/>
+      <c r="I40" s="8">
+        <f t="array" ref="I40">_xlfn.RANK.EQ(H40,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H40)*($F$4:$F$45&gt;F40))</f>
+        <v>7</v>
+      </c>
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.6">
@@ -18153,7 +18339,10 @@
         <f t="shared" si="0"/>
         <v>866.5</v>
       </c>
-      <c r="I41" s="8"/>
+      <c r="I41" s="8">
+        <f t="array" ref="I41">_xlfn.RANK.EQ(H41,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H41)*($F$4:$F$45&gt;F41))</f>
+        <v>19</v>
+      </c>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.6">
@@ -18179,7 +18368,10 @@
         <f t="shared" si="0"/>
         <v>813</v>
       </c>
-      <c r="I42" s="8"/>
+      <c r="I42" s="8">
+        <f t="array" ref="I42">_xlfn.RANK.EQ(H42,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H42)*($F$4:$F$45&gt;F42))</f>
+        <v>28</v>
+      </c>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.6">
@@ -18205,7 +18397,10 @@
         <f t="shared" si="0"/>
         <v>944.5</v>
       </c>
-      <c r="I43" s="8"/>
+      <c r="I43" s="8">
+        <f t="array" ref="I43">_xlfn.RANK.EQ(H43,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H43)*($F$4:$F$45&gt;F43))</f>
+        <v>4</v>
+      </c>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.6">
@@ -18231,7 +18426,10 @@
         <f t="shared" si="0"/>
         <v>887.5</v>
       </c>
-      <c r="I44" s="8"/>
+      <c r="I44" s="8">
+        <f t="array" ref="I44">_xlfn.RANK.EQ(H44,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H44)*($F$4:$F$45&gt;F44))</f>
+        <v>13</v>
+      </c>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.6">
@@ -18257,7 +18455,10 @@
         <f t="shared" si="0"/>
         <v>941</v>
       </c>
-      <c r="I45" s="8"/>
+      <c r="I45" s="8">
+        <f t="array" ref="I45">_xlfn.RANK.EQ(H45,$H$4:$H$45,0)+SUMPRODUCT(($H$4:$H$45=H45)*($F$4:$F$45&gt;F45))</f>
+        <v>5</v>
+      </c>
       <c r="J45" s="8"/>
     </row>
   </sheetData>
